--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H2">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I2">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J2">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.704614</v>
+        <v>1.3523675</v>
       </c>
       <c r="N2">
-        <v>5.113842</v>
+        <v>2.704735</v>
       </c>
       <c r="O2">
-        <v>0.1078894737559977</v>
+        <v>0.03689241480652255</v>
       </c>
       <c r="P2">
-        <v>0.1126857637256889</v>
+        <v>0.02563375261624947</v>
       </c>
       <c r="Q2">
-        <v>2.597881169806</v>
+        <v>3.83101843463625</v>
       </c>
       <c r="R2">
-        <v>15.587287018836</v>
+        <v>15.324073738545</v>
       </c>
       <c r="S2">
-        <v>0.009742639741461369</v>
+        <v>0.005951536530956167</v>
       </c>
       <c r="T2">
-        <v>0.007737758595353935</v>
+        <v>0.003289251839522366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H3">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I3">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J3">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.267396666666668</v>
+        <v>1.704614</v>
       </c>
       <c r="N3">
-        <v>24.80219</v>
+        <v>5.113842</v>
       </c>
       <c r="O3">
-        <v>0.5232651355079544</v>
+        <v>0.04650165489262765</v>
       </c>
       <c r="P3">
-        <v>0.5465271946649201</v>
+        <v>0.04846573166930822</v>
       </c>
       <c r="Q3">
-        <v>12.59975227450334</v>
+        <v>4.828870597629</v>
       </c>
       <c r="R3">
-        <v>75.59851364702001</v>
+        <v>28.973223585774</v>
       </c>
       <c r="S3">
-        <v>0.04725191000607289</v>
+        <v>0.007501712731324373</v>
       </c>
       <c r="T3">
-        <v>0.03752821437504355</v>
+        <v>0.006218987888102432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H4">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I4">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J4">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.0174585</v>
+        <v>22.76267366666666</v>
       </c>
       <c r="N4">
-        <v>4.034917</v>
+        <v>68.28802099999999</v>
       </c>
       <c r="O4">
-        <v>0.1276902195391827</v>
+        <v>0.620962866244696</v>
       </c>
       <c r="P4">
-        <v>0.08891117553392644</v>
+        <v>0.6471902929371077</v>
       </c>
       <c r="Q4">
-        <v>3.0746652602965</v>
+        <v>64.48263688576448</v>
       </c>
       <c r="R4">
-        <v>12.298661041186</v>
+        <v>386.8958213145869</v>
       </c>
       <c r="S4">
-        <v>0.01153068750981104</v>
+        <v>0.100174607767046</v>
       </c>
       <c r="T4">
-        <v>0.006105236277986241</v>
+        <v>0.08304565833310543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H5">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I5">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J5">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.810163</v>
+        <v>3.1042215</v>
       </c>
       <c r="N5">
-        <v>11.430489</v>
+        <v>6.208443</v>
       </c>
       <c r="O5">
-        <v>0.2411551711968653</v>
+        <v>0.08468277094009255</v>
       </c>
       <c r="P5">
-        <v>0.2518758660754646</v>
+        <v>0.05883966155430594</v>
       </c>
       <c r="Q5">
-        <v>5.806798906727</v>
+        <v>8.79371161440525</v>
       </c>
       <c r="R5">
-        <v>34.840793440362</v>
+        <v>35.174846457621</v>
       </c>
       <c r="S5">
-        <v>0.02177680428838767</v>
+        <v>0.0136611443689896</v>
       </c>
       <c r="T5">
-        <v>0.01729548243939657</v>
+        <v>0.007550141717513824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.502875000000001</v>
+        <v>2.8328235</v>
       </c>
       <c r="H6">
-        <v>25.508625</v>
+        <v>5.665647</v>
       </c>
       <c r="I6">
-        <v>0.5038138851085998</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J6">
-        <v>0.5746586476550658</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.704614</v>
+        <v>2.062343333333333</v>
       </c>
       <c r="N6">
-        <v>5.113842</v>
+        <v>6.18703</v>
       </c>
       <c r="O6">
-        <v>0.1078894737559977</v>
+        <v>0.0562604659804378</v>
       </c>
       <c r="P6">
-        <v>0.1126857637256889</v>
+        <v>0.05863672280253478</v>
       </c>
       <c r="Q6">
-        <v>14.49411976525</v>
+        <v>5.842254659735</v>
       </c>
       <c r="R6">
-        <v>130.44707788725</v>
+        <v>35.05352795841</v>
       </c>
       <c r="S6">
-        <v>0.05435621493533151</v>
+        <v>0.009076017937215471</v>
       </c>
       <c r="T6">
-        <v>0.06475584859258265</v>
+        <v>0.007524101181328323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.502875000000001</v>
+        <v>2.8328235</v>
       </c>
       <c r="H7">
-        <v>25.508625</v>
+        <v>5.665647</v>
       </c>
       <c r="I7">
-        <v>0.5038138851085998</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J7">
-        <v>0.5746586476550658</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.267396666666668</v>
+        <v>5.670841</v>
       </c>
       <c r="N7">
-        <v>24.80219</v>
+        <v>17.012523</v>
       </c>
       <c r="O7">
-        <v>0.5232651355079544</v>
+        <v>0.1546998271356234</v>
       </c>
       <c r="P7">
-        <v>0.5465271946649201</v>
+        <v>0.1612338384204938</v>
       </c>
       <c r="Q7">
-        <v>70.29664043208336</v>
+        <v>16.0644916495635</v>
       </c>
       <c r="R7">
-        <v>632.6697638887501</v>
+        <v>96.386949897381</v>
       </c>
       <c r="S7">
-        <v>0.2636282408621404</v>
+        <v>0.0249563948946895</v>
       </c>
       <c r="T7">
-        <v>0.3140665785928599</v>
+        <v>0.02068907769991018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>25.508625</v>
       </c>
       <c r="I8">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J8">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.0174585</v>
+        <v>1.3523675</v>
       </c>
       <c r="N8">
-        <v>4.034917</v>
+        <v>2.704735</v>
       </c>
       <c r="O8">
-        <v>0.1276902195391827</v>
+        <v>0.03689241480652255</v>
       </c>
       <c r="P8">
-        <v>0.08891117553392644</v>
+        <v>0.02563375261624947</v>
       </c>
       <c r="Q8">
-        <v>17.1541974431875</v>
+        <v>11.4990118065625</v>
       </c>
       <c r="R8">
-        <v>102.925184659125</v>
+        <v>68.99407083937501</v>
       </c>
       <c r="S8">
-        <v>0.06433210559640569</v>
+        <v>0.0178638630965374</v>
       </c>
       <c r="T8">
-        <v>0.05109357589374834</v>
+        <v>0.01480930451631318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>25.508625</v>
       </c>
       <c r="I9">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J9">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,42 +995,42 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.810163</v>
+        <v>1.704614</v>
       </c>
       <c r="N9">
-        <v>11.430489</v>
+        <v>5.113842</v>
       </c>
       <c r="O9">
-        <v>0.2411551711968653</v>
+        <v>0.04650165489262765</v>
       </c>
       <c r="P9">
-        <v>0.2518758660754646</v>
+        <v>0.04846573166930822</v>
       </c>
       <c r="Q9">
-        <v>32.39733971862501</v>
+        <v>14.49411976525</v>
       </c>
       <c r="R9">
-        <v>291.576057467625</v>
+        <v>130.44707788725</v>
       </c>
       <c r="S9">
-        <v>0.1214973237147222</v>
+        <v>0.02251680192583821</v>
       </c>
       <c r="T9">
-        <v>0.1447426445758749</v>
+        <v>0.02799994950570463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3890603333333333</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H10">
-        <v>1.167181</v>
+        <v>25.508625</v>
       </c>
       <c r="I10">
-        <v>0.02305267313447669</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J10">
-        <v>0.02629426929239374</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.704614</v>
+        <v>22.76267366666666</v>
       </c>
       <c r="N10">
-        <v>5.113842</v>
+        <v>68.28802099999999</v>
       </c>
       <c r="O10">
-        <v>0.1078894737559977</v>
+        <v>0.620962866244696</v>
       </c>
       <c r="P10">
-        <v>0.1126857637256889</v>
+        <v>0.6471902929371077</v>
       </c>
       <c r="Q10">
-        <v>0.6631976910446667</v>
+        <v>193.5481688534583</v>
       </c>
       <c r="R10">
-        <v>5.968779219402</v>
+        <v>1741.933519681125</v>
       </c>
       <c r="S10">
-        <v>0.002487140773147716</v>
+        <v>0.3006795757014941</v>
       </c>
       <c r="T10">
-        <v>0.002962989816822318</v>
+        <v>0.3738991427276199</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3890603333333333</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H11">
-        <v>1.167181</v>
+        <v>25.508625</v>
       </c>
       <c r="I11">
-        <v>0.02305267313447669</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J11">
-        <v>0.02629426929239374</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.267396666666668</v>
+        <v>3.1042215</v>
       </c>
       <c r="N11">
-        <v>24.80219</v>
+        <v>6.208443</v>
       </c>
       <c r="O11">
-        <v>0.5232651355079544</v>
+        <v>0.08468277094009255</v>
       </c>
       <c r="P11">
-        <v>0.5465271946649201</v>
+        <v>0.05883966155430594</v>
       </c>
       <c r="Q11">
-        <v>3.216516102932223</v>
+        <v>26.3948073868125</v>
       </c>
       <c r="R11">
-        <v>28.94864492639</v>
+        <v>158.368844320875</v>
       </c>
       <c r="S11">
-        <v>0.01206266013153253</v>
+        <v>0.04100467357972443</v>
       </c>
       <c r="T11">
-        <v>0.0143705332321359</v>
+        <v>0.03399324627335874</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3890603333333333</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H12">
-        <v>1.167181</v>
+        <v>25.508625</v>
       </c>
       <c r="I12">
-        <v>0.02305267313447669</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J12">
-        <v>0.02629426929239374</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.0174585</v>
+        <v>2.062343333333333</v>
       </c>
       <c r="N12">
-        <v>4.034917</v>
+        <v>6.18703</v>
       </c>
       <c r="O12">
-        <v>0.1276902195391827</v>
+        <v>0.0562604659804378</v>
       </c>
       <c r="P12">
-        <v>0.08891117553392644</v>
+        <v>0.05863672280253478</v>
       </c>
       <c r="Q12">
-        <v>0.7849130764961667</v>
+        <v>17.53584757041667</v>
       </c>
       <c r="R12">
-        <v>4.709478458977</v>
+        <v>157.82262813375</v>
       </c>
       <c r="S12">
-        <v>0.002943600893506349</v>
+        <v>0.02724216528770712</v>
       </c>
       <c r="T12">
-        <v>0.002337854392592352</v>
+        <v>0.03387600312842667</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3890603333333333</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H13">
-        <v>1.167181</v>
+        <v>25.508625</v>
       </c>
       <c r="I13">
-        <v>0.02305267313447669</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J13">
-        <v>0.02629426929239374</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.810163</v>
+        <v>5.670841</v>
       </c>
       <c r="N13">
-        <v>11.430489</v>
+        <v>17.012523</v>
       </c>
       <c r="O13">
-        <v>0.2411551711968653</v>
+        <v>0.1546998271356234</v>
       </c>
       <c r="P13">
-        <v>0.2518758660754646</v>
+        <v>0.1612338384204938</v>
       </c>
       <c r="Q13">
-        <v>1.482383286834333</v>
+        <v>48.21845216787501</v>
       </c>
       <c r="R13">
-        <v>13.341449581509</v>
+        <v>433.9660695108751</v>
       </c>
       <c r="S13">
-        <v>0.005559271336290104</v>
+        <v>0.07490798711609918</v>
       </c>
       <c r="T13">
-        <v>0.006622891850843166</v>
+        <v>0.09314910100168107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.717841</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H14">
-        <v>9.435682</v>
+        <v>0.546386</v>
       </c>
       <c r="I14">
-        <v>0.2795423669681891</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J14">
-        <v>0.2125671712145694</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.704614</v>
+        <v>1.3523675</v>
       </c>
       <c r="N14">
-        <v>5.113842</v>
+        <v>2.704735</v>
       </c>
       <c r="O14">
-        <v>0.1078894737559977</v>
+        <v>0.03689241480652255</v>
       </c>
       <c r="P14">
-        <v>0.1126857637256889</v>
+        <v>0.02563375261624947</v>
       </c>
       <c r="Q14">
-        <v>8.042097818374</v>
+        <v>0.2463048896183334</v>
       </c>
       <c r="R14">
-        <v>48.252586910244</v>
+        <v>1.47782933771</v>
       </c>
       <c r="S14">
-        <v>0.03015967886470391</v>
+        <v>0.0003826378215942524</v>
       </c>
       <c r="T14">
-        <v>0.02395329403132303</v>
+        <v>0.0003172102242849348</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.717841</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H15">
-        <v>9.435682</v>
+        <v>0.546386</v>
       </c>
       <c r="I15">
-        <v>0.2795423669681891</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J15">
-        <v>0.2125671712145694</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.267396666666668</v>
+        <v>1.704614</v>
       </c>
       <c r="N15">
-        <v>24.80219</v>
+        <v>5.113842</v>
       </c>
       <c r="O15">
-        <v>0.5232651355079544</v>
+        <v>0.04650165489262765</v>
       </c>
       <c r="P15">
-        <v>0.5465271946649201</v>
+        <v>0.04846573166930822</v>
       </c>
       <c r="Q15">
-        <v>39.00426295726334</v>
+        <v>0.3104590750013334</v>
       </c>
       <c r="R15">
-        <v>234.02557774358</v>
+        <v>2.794131675012</v>
       </c>
       <c r="S15">
-        <v>0.1462747745318238</v>
+        <v>0.0004823021757170775</v>
       </c>
       <c r="T15">
-        <v>0.1161737397617564</v>
+        <v>0.0005997493165791543</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>4.717841</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H16">
-        <v>9.435682</v>
+        <v>0.546386</v>
       </c>
       <c r="I16">
-        <v>0.2795423669681891</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J16">
-        <v>0.2125671712145694</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.0174585</v>
+        <v>22.76267366666666</v>
       </c>
       <c r="N16">
-        <v>4.034917</v>
+        <v>68.28802099999999</v>
       </c>
       <c r="O16">
-        <v>0.1276902195391827</v>
+        <v>0.620962866244696</v>
       </c>
       <c r="P16">
-        <v>0.08891117553392644</v>
+        <v>0.6471902929371077</v>
       </c>
       <c r="Q16">
-        <v>9.518048427098501</v>
+        <v>4.145735404678444</v>
       </c>
       <c r="R16">
-        <v>38.072193708394</v>
+        <v>37.311618642106</v>
       </c>
       <c r="S16">
-        <v>0.03569482620867085</v>
+        <v>0.006440453401515626</v>
       </c>
       <c r="T16">
-        <v>0.01889959707260878</v>
+        <v>0.00800879141852504</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>4.717841</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H17">
-        <v>9.435682</v>
+        <v>0.546386</v>
       </c>
       <c r="I17">
-        <v>0.2795423669681891</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J17">
-        <v>0.2125671712145694</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.810163</v>
+        <v>3.1042215</v>
       </c>
       <c r="N17">
-        <v>11.430489</v>
+        <v>6.208443</v>
       </c>
       <c r="O17">
-        <v>0.2411551711968653</v>
+        <v>0.08468277094009255</v>
       </c>
       <c r="P17">
-        <v>0.2518758660754646</v>
+        <v>0.05883966155430594</v>
       </c>
       <c r="Q17">
-        <v>17.975743218083</v>
+        <v>0.5653677228330001</v>
       </c>
       <c r="R17">
-        <v>107.854459308498</v>
+        <v>3.392206336998</v>
       </c>
       <c r="S17">
-        <v>0.06741308736299058</v>
+        <v>0.0008783060466227133</v>
       </c>
       <c r="T17">
-        <v>0.05354054034888123</v>
+        <v>0.0007281236781016376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.295005</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H18">
-        <v>3.885015</v>
+        <v>0.546386</v>
       </c>
       <c r="I18">
-        <v>0.07673187013628475</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J18">
-        <v>0.08752167025935914</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.704614</v>
+        <v>2.062343333333333</v>
       </c>
       <c r="N18">
-        <v>5.113842</v>
+        <v>6.18703</v>
       </c>
       <c r="O18">
-        <v>0.1078894737559977</v>
+        <v>0.0562604659804378</v>
       </c>
       <c r="P18">
-        <v>0.1126857637256889</v>
+        <v>0.05863672280253478</v>
       </c>
       <c r="Q18">
-        <v>2.20748365307</v>
+        <v>0.3756118415088889</v>
       </c>
       <c r="R18">
-        <v>19.86735287763</v>
+        <v>3.38050657358</v>
       </c>
       <c r="S18">
-        <v>0.008278561089317316</v>
+        <v>0.0005835178384914571</v>
       </c>
       <c r="T18">
-        <v>0.009862446255723797</v>
+        <v>0.0007256123701425905</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.295005</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H19">
-        <v>3.885015</v>
+        <v>0.546386</v>
       </c>
       <c r="I19">
-        <v>0.07673187013628475</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J19">
-        <v>0.08752167025935914</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.267396666666668</v>
+        <v>5.670841</v>
       </c>
       <c r="N19">
-        <v>24.80219</v>
+        <v>17.012523</v>
       </c>
       <c r="O19">
-        <v>0.5232651355079544</v>
+        <v>0.1546998271356234</v>
       </c>
       <c r="P19">
-        <v>0.5465271946649201</v>
+        <v>0.1612338384204938</v>
       </c>
       <c r="Q19">
-        <v>10.70632002031667</v>
+        <v>1.032822710208667</v>
       </c>
       <c r="R19">
-        <v>96.35688018285002</v>
+        <v>9.295404391878002</v>
       </c>
       <c r="S19">
-        <v>0.0401511124246418</v>
+        <v>0.001604503396338179</v>
       </c>
       <c r="T19">
-        <v>0.04783297291923572</v>
+        <v>0.001995221800465706</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,25 +1650,25 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.295005</v>
+        <v>5.6940955</v>
       </c>
       <c r="H20">
-        <v>3.885015</v>
+        <v>11.388191</v>
       </c>
       <c r="I20">
-        <v>0.07673187013628475</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J20">
-        <v>0.08752167025935914</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.0174585</v>
+        <v>1.3523675</v>
       </c>
       <c r="N20">
-        <v>4.034917</v>
+        <v>2.704735</v>
       </c>
       <c r="O20">
-        <v>0.1276902195391827</v>
+        <v>0.03689241480652255</v>
       </c>
       <c r="P20">
-        <v>0.08891117553392644</v>
+        <v>0.02563375261624947</v>
       </c>
       <c r="Q20">
-        <v>2.6126188447925</v>
+        <v>7.70050969609625</v>
       </c>
       <c r="R20">
-        <v>15.675713068755</v>
+        <v>30.802038784385</v>
       </c>
       <c r="S20">
-        <v>0.009797909343354259</v>
+        <v>0.01196284109440744</v>
       </c>
       <c r="T20">
-        <v>0.00778165458745231</v>
+        <v>0.00661153583969881</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.295005</v>
+        <v>5.6940955</v>
       </c>
       <c r="H21">
-        <v>3.885015</v>
+        <v>11.388191</v>
       </c>
       <c r="I21">
-        <v>0.07673187013628475</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J21">
-        <v>0.08752167025935914</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.810163</v>
+        <v>1.704614</v>
       </c>
       <c r="N21">
-        <v>11.430489</v>
+        <v>5.113842</v>
       </c>
       <c r="O21">
-        <v>0.2411551711968653</v>
+        <v>0.04650165489262765</v>
       </c>
       <c r="P21">
-        <v>0.2518758660754646</v>
+        <v>0.04846573166930822</v>
       </c>
       <c r="Q21">
-        <v>4.934180135815</v>
+        <v>9.706234906637</v>
       </c>
       <c r="R21">
-        <v>44.407621222335</v>
+        <v>58.237409439822</v>
       </c>
       <c r="S21">
-        <v>0.01850428727897139</v>
+        <v>0.0150787610684982</v>
       </c>
       <c r="T21">
-        <v>0.02204459649694732</v>
+        <v>0.01250042967668072</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4482056666666667</v>
+        <v>5.6940955</v>
       </c>
       <c r="H22">
-        <v>1.344617</v>
+        <v>11.388191</v>
       </c>
       <c r="I22">
-        <v>0.02655716310671665</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J22">
-        <v>0.03029154989083149</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.704614</v>
+        <v>22.76267366666666</v>
       </c>
       <c r="N22">
-        <v>5.113842</v>
+        <v>68.28802099999999</v>
       </c>
       <c r="O22">
-        <v>0.1078894737559977</v>
+        <v>0.620962866244696</v>
       </c>
       <c r="P22">
-        <v>0.1126857637256889</v>
+        <v>0.6471902929371077</v>
       </c>
       <c r="Q22">
-        <v>0.7640176542793333</v>
+        <v>129.6128376933351</v>
       </c>
       <c r="R22">
-        <v>6.876158888513999</v>
+        <v>777.6770261600108</v>
       </c>
       <c r="S22">
-        <v>0.002865238352035856</v>
+        <v>0.2013552144355628</v>
       </c>
       <c r="T22">
-        <v>0.003413426433883155</v>
+        <v>0.1669252988790417</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4482056666666667</v>
+        <v>5.6940955</v>
       </c>
       <c r="H23">
-        <v>1.344617</v>
+        <v>11.388191</v>
       </c>
       <c r="I23">
-        <v>0.02655716310671665</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J23">
-        <v>0.03029154989083149</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.267396666666668</v>
+        <v>3.1042215</v>
       </c>
       <c r="N23">
-        <v>24.80219</v>
+        <v>6.208443</v>
       </c>
       <c r="O23">
-        <v>0.5232651355079544</v>
+        <v>0.08468277094009255</v>
       </c>
       <c r="P23">
-        <v>0.5465271946649201</v>
+        <v>0.05883966155430594</v>
       </c>
       <c r="Q23">
-        <v>3.705494034581112</v>
+        <v>17.67573367415325</v>
       </c>
       <c r="R23">
-        <v>33.34944631123</v>
+        <v>70.702934696613</v>
       </c>
       <c r="S23">
-        <v>0.01389643755174294</v>
+        <v>0.02745948015339255</v>
       </c>
       <c r="T23">
-        <v>0.0165551557838886</v>
+        <v>0.0151761053867485</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,60 +1898,60 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4482056666666667</v>
+        <v>5.6940955</v>
       </c>
       <c r="H24">
-        <v>1.344617</v>
+        <v>11.388191</v>
       </c>
       <c r="I24">
-        <v>0.02655716310671665</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J24">
-        <v>0.03029154989083149</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>2.0174585</v>
+        <v>2.062343333333333</v>
       </c>
       <c r="N24">
-        <v>4.034917</v>
+        <v>6.18703</v>
       </c>
       <c r="O24">
-        <v>0.1276902195391827</v>
+        <v>0.0562604659804378</v>
       </c>
       <c r="P24">
-        <v>0.08891117553392644</v>
+        <v>0.05863672280253478</v>
       </c>
       <c r="Q24">
-        <v>0.9042363319648333</v>
+        <v>11.74317989378833</v>
       </c>
       <c r="R24">
-        <v>5.425417991789</v>
+        <v>70.45907936272999</v>
       </c>
       <c r="S24">
-        <v>0.003391089987434533</v>
+        <v>0.01824318136806543</v>
       </c>
       <c r="T24">
-        <v>0.002693257309538409</v>
+        <v>0.01512376280348786</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4482056666666667</v>
+        <v>5.6940955</v>
       </c>
       <c r="H25">
-        <v>1.344617</v>
+        <v>11.388191</v>
       </c>
       <c r="I25">
-        <v>0.02655716310671665</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J25">
-        <v>0.03029154989083149</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,772 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.810163</v>
+        <v>5.670841</v>
       </c>
       <c r="N25">
-        <v>11.430489</v>
+        <v>17.012523</v>
       </c>
       <c r="O25">
-        <v>0.2411551711968653</v>
+        <v>0.1546998271356234</v>
       </c>
       <c r="P25">
-        <v>0.2518758660754646</v>
+        <v>0.1612338384204938</v>
       </c>
       <c r="Q25">
-        <v>1.707736647523667</v>
+        <v>32.2903102193155</v>
       </c>
       <c r="R25">
-        <v>15.369629827713</v>
+        <v>193.741861315893</v>
       </c>
       <c r="S25">
-        <v>0.006404397215503329</v>
+        <v>0.05016341323985572</v>
       </c>
       <c r="T25">
-        <v>0.007629710363521327</v>
+        <v>0.04158592451319642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.165052</v>
+      </c>
+      <c r="H26">
+        <v>0.495156</v>
+      </c>
+      <c r="I26">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J26">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.3523675</v>
+      </c>
+      <c r="N26">
+        <v>2.704735</v>
+      </c>
+      <c r="O26">
+        <v>0.03689241480652255</v>
+      </c>
+      <c r="P26">
+        <v>0.02563375261624947</v>
+      </c>
+      <c r="Q26">
+        <v>0.22321096061</v>
+      </c>
+      <c r="R26">
+        <v>1.33926576366</v>
+      </c>
+      <c r="S26">
+        <v>0.0003467611051332275</v>
+      </c>
+      <c r="T26">
+        <v>0.0002874681009689691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.165052</v>
+      </c>
+      <c r="H27">
+        <v>0.495156</v>
+      </c>
+      <c r="I27">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J27">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.704614</v>
+      </c>
+      <c r="N27">
+        <v>5.113842</v>
+      </c>
+      <c r="O27">
+        <v>0.04650165489262765</v>
+      </c>
+      <c r="P27">
+        <v>0.04846573166930822</v>
+      </c>
+      <c r="Q27">
+        <v>0.281349949928</v>
+      </c>
+      <c r="R27">
+        <v>2.532149549352</v>
+      </c>
+      <c r="S27">
+        <v>0.0004370807746160503</v>
+      </c>
+      <c r="T27">
+        <v>0.0005435158891334473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.165052</v>
+      </c>
+      <c r="H28">
+        <v>0.495156</v>
+      </c>
+      <c r="I28">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J28">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>22.76267366666666</v>
+      </c>
+      <c r="N28">
+        <v>68.28802099999999</v>
+      </c>
+      <c r="O28">
+        <v>0.620962866244696</v>
+      </c>
+      <c r="P28">
+        <v>0.6471902929371077</v>
+      </c>
+      <c r="Q28">
+        <v>3.757024814030666</v>
+      </c>
+      <c r="R28">
+        <v>33.813223326276</v>
+      </c>
+      <c r="S28">
+        <v>0.005836586487356688</v>
+      </c>
+      <c r="T28">
+        <v>0.007257874695968025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.165052</v>
+      </c>
+      <c r="H29">
+        <v>0.495156</v>
+      </c>
+      <c r="I29">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J29">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3.1042215</v>
+      </c>
+      <c r="N29">
+        <v>6.208443</v>
+      </c>
+      <c r="O29">
+        <v>0.08468277094009255</v>
+      </c>
+      <c r="P29">
+        <v>0.05883966155430594</v>
+      </c>
+      <c r="Q29">
+        <v>0.512357967018</v>
+      </c>
+      <c r="R29">
+        <v>3.074147802108</v>
+      </c>
+      <c r="S29">
+        <v>0.0007959547075172428</v>
+      </c>
+      <c r="T29">
+        <v>0.0006598536711301066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.165052</v>
+      </c>
+      <c r="H30">
+        <v>0.495156</v>
+      </c>
+      <c r="I30">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J30">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>2.062343333333333</v>
+      </c>
+      <c r="N30">
+        <v>6.18703</v>
+      </c>
+      <c r="O30">
+        <v>0.0562604659804378</v>
+      </c>
+      <c r="P30">
+        <v>0.05863672280253478</v>
+      </c>
+      <c r="Q30">
+        <v>0.3403938918533333</v>
+      </c>
+      <c r="R30">
+        <v>3.06354502668</v>
+      </c>
+      <c r="S30">
+        <v>0.0005288062996417843</v>
+      </c>
+      <c r="T30">
+        <v>0.0006575778273058324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.165052</v>
+      </c>
+      <c r="H31">
+        <v>0.495156</v>
+      </c>
+      <c r="I31">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J31">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.670841</v>
+      </c>
+      <c r="N31">
+        <v>17.012523</v>
+      </c>
+      <c r="O31">
+        <v>0.1546998271356234</v>
+      </c>
+      <c r="P31">
+        <v>0.1612338384204938</v>
+      </c>
+      <c r="Q31">
+        <v>0.935983648732</v>
+      </c>
+      <c r="R31">
+        <v>8.423852838588001</v>
+      </c>
+      <c r="S31">
+        <v>0.001454062665802614</v>
+      </c>
+      <c r="T31">
+        <v>0.001808146705500135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.183146</v>
+      </c>
+      <c r="H32">
+        <v>0.549438</v>
+      </c>
+      <c r="I32">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J32">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.3523675</v>
+      </c>
+      <c r="N32">
+        <v>2.704735</v>
+      </c>
+      <c r="O32">
+        <v>0.03689241480652255</v>
+      </c>
+      <c r="P32">
+        <v>0.02563375261624947</v>
+      </c>
+      <c r="Q32">
+        <v>0.247680698155</v>
+      </c>
+      <c r="R32">
+        <v>1.48608418893</v>
+      </c>
+      <c r="S32">
+        <v>0.0003847751578940581</v>
+      </c>
+      <c r="T32">
+        <v>0.000318982095461205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.183146</v>
+      </c>
+      <c r="H33">
+        <v>0.549438</v>
+      </c>
+      <c r="I33">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J33">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.704614</v>
+      </c>
+      <c r="N33">
+        <v>5.113842</v>
+      </c>
+      <c r="O33">
+        <v>0.04650165489262765</v>
+      </c>
+      <c r="P33">
+        <v>0.04846573166930822</v>
+      </c>
+      <c r="Q33">
+        <v>0.312193235644</v>
+      </c>
+      <c r="R33">
+        <v>2.809739120796</v>
+      </c>
+      <c r="S33">
+        <v>0.0004849962166337345</v>
+      </c>
+      <c r="T33">
+        <v>0.0006030993931078346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.183146</v>
+      </c>
+      <c r="H34">
+        <v>0.549438</v>
+      </c>
+      <c r="I34">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J34">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>22.76267366666666</v>
+      </c>
+      <c r="N34">
+        <v>68.28802099999999</v>
+      </c>
+      <c r="O34">
+        <v>0.620962866244696</v>
+      </c>
+      <c r="P34">
+        <v>0.6471902929371077</v>
+      </c>
+      <c r="Q34">
+        <v>4.168892631355332</v>
+      </c>
+      <c r="R34">
+        <v>37.52003368219799</v>
+      </c>
+      <c r="S34">
+        <v>0.006476428451720839</v>
+      </c>
+      <c r="T34">
+        <v>0.008053526882847587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.183146</v>
+      </c>
+      <c r="H35">
+        <v>0.549438</v>
+      </c>
+      <c r="I35">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J35">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.1042215</v>
+      </c>
+      <c r="N35">
+        <v>6.208443</v>
+      </c>
+      <c r="O35">
+        <v>0.08468277094009255</v>
+      </c>
+      <c r="P35">
+        <v>0.05883966155430594</v>
+      </c>
+      <c r="Q35">
+        <v>0.568525750839</v>
+      </c>
+      <c r="R35">
+        <v>3.411154505034</v>
+      </c>
+      <c r="S35">
+        <v>0.0008832120838460179</v>
+      </c>
+      <c r="T35">
+        <v>0.000732190827453133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.183146</v>
+      </c>
+      <c r="H36">
+        <v>0.549438</v>
+      </c>
+      <c r="I36">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J36">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>2.062343333333333</v>
+      </c>
+      <c r="N36">
+        <v>6.18703</v>
+      </c>
+      <c r="O36">
+        <v>0.0562604659804378</v>
+      </c>
+      <c r="P36">
+        <v>0.05863672280253478</v>
+      </c>
+      <c r="Q36">
+        <v>0.3777099321266666</v>
+      </c>
+      <c r="R36">
+        <v>3.39938938914</v>
+      </c>
+      <c r="S36">
+        <v>0.000586777249316544</v>
+      </c>
+      <c r="T36">
+        <v>0.0007296654918435036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.183146</v>
+      </c>
+      <c r="H37">
+        <v>0.549438</v>
+      </c>
+      <c r="I37">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J37">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.670841</v>
+      </c>
+      <c r="N37">
+        <v>17.012523</v>
+      </c>
+      <c r="O37">
+        <v>0.1546998271356234</v>
+      </c>
+      <c r="P37">
+        <v>0.1612338384204938</v>
+      </c>
+      <c r="Q37">
+        <v>1.038591845786</v>
+      </c>
+      <c r="R37">
+        <v>9.347326612074001</v>
+      </c>
+      <c r="S37">
+        <v>0.001613465822838169</v>
+      </c>
+      <c r="T37">
+        <v>0.00200636669974025</v>
       </c>
     </row>
   </sheetData>
